--- a/VennOutput/NonTrimmed_PFIZER_Combined_Output_Mono-vs-Bivalent.xlsx
+++ b/VennOutput/NonTrimmed_PFIZER_Combined_Output_Mono-vs-Bivalent.xlsx
@@ -1786,7 +1786,9 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1823,7 +1825,9 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1860,7 +1864,9 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1897,7 +1903,9 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1934,7 +1942,9 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1971,7 +1981,9 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2008,7 +2020,9 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2045,7 +2059,9 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2082,7 +2098,9 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2119,7 +2137,9 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2156,7 +2176,9 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2193,7 +2215,9 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2230,7 +2254,9 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2267,7 +2293,9 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2304,7 +2332,9 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2341,7 +2371,9 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2378,7 +2410,9 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2415,7 +2449,9 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2452,7 +2488,9 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2489,7 +2527,9 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2526,7 +2566,9 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2563,7 +2605,9 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2600,7 +2644,9 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2637,7 +2683,9 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2674,7 +2722,9 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2711,7 +2761,9 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2748,7 +2800,9 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2785,7 +2839,9 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2822,7 +2878,9 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2859,7 +2917,9 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2896,7 +2956,9 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2933,7 +2995,9 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2970,7 +3034,9 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3007,7 +3073,9 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3044,7 +3112,9 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3081,7 +3151,9 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3118,7 +3190,9 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3155,7 +3229,9 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3192,7 +3268,9 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3229,7 +3307,9 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3266,7 +3346,9 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3303,7 +3385,9 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3340,7 +3424,9 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3377,7 +3463,9 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3414,7 +3502,9 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3451,7 +3541,9 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3488,7 +3580,9 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -3525,7 +3619,9 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3562,7 +3658,9 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -3599,7 +3697,9 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3636,7 +3736,9 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -3673,7 +3775,9 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3710,7 +3814,9 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3747,7 +3853,9 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3784,7 +3892,9 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -3821,7 +3931,9 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3858,7 +3970,9 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3895,7 +4009,9 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3932,7 +4048,9 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3969,7 +4087,9 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -4006,7 +4126,9 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -4043,7 +4165,9 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -4080,7 +4204,9 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -4117,7 +4243,9 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -4154,7 +4282,9 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -4191,7 +4321,9 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -4228,7 +4360,9 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -4265,7 +4399,9 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -4302,7 +4438,9 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -4339,7 +4477,9 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -4376,7 +4516,9 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -4413,7 +4555,9 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -4450,7 +4594,9 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -4487,7 +4633,9 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -4524,7 +4672,9 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -4561,7 +4711,9 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -4598,7 +4750,9 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -4635,7 +4789,9 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -4672,7 +4828,9 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -4709,7 +4867,9 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -4746,7 +4906,9 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -4783,7 +4945,9 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -4820,7 +4984,9 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -4857,7 +5023,9 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -4894,7 +5062,9 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -4931,7 +5101,9 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -4968,7 +5140,9 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -5005,7 +5179,9 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -5042,7 +5218,9 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -5079,7 +5257,9 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -5116,7 +5296,9 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -5153,7 +5335,9 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -5190,7 +5374,9 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -5227,7 +5413,9 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -5264,7 +5452,9 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -5301,7 +5491,9 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -5338,7 +5530,9 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -5375,7 +5569,9 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -5412,7 +5608,9 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -5449,7 +5647,9 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -5486,7 +5686,9 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -5523,7 +5725,9 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -5560,7 +5764,9 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -5597,7 +5803,9 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -5634,7 +5842,9 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -5671,7 +5881,9 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -5708,7 +5920,9 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -5745,7 +5959,9 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -5782,7 +5998,9 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -5819,7 +6037,9 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -5856,7 +6076,9 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -5893,7 +6115,9 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -5930,7 +6154,9 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -5967,7 +6193,9 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -6004,7 +6232,9 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -6041,7 +6271,9 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -6078,7 +6310,9 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -6115,7 +6349,9 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -6152,7 +6388,9 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -6189,7 +6427,9 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -6226,7 +6466,9 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -6263,7 +6505,9 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -6300,7 +6544,9 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">

--- a/VennOutput/NonTrimmed_PFIZER_Combined_Output_Mono-vs-Bivalent.xlsx
+++ b/VennOutput/NonTrimmed_PFIZER_Combined_Output_Mono-vs-Bivalent.xlsx
@@ -370,52 +370,52 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Case No.x</t>
+          <t>Case No</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>PRR.x</t>
+          <t>PRR</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Percentage of cases.x</t>
+          <t>Percentage of cases</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Xsquared.x</t>
+          <t>Xsquared</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Significance.x</t>
+          <t>Significance</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Case No.y</t>
+          <t>Case No.PFIZER_BI</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>PRR.y</t>
+          <t>PRR.PFIZER_BI</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Percentage of cases.y</t>
+          <t>Percentage of cases.PFIZER_BI</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Xsquared.y</t>
+          <t>Xsquared.PFIZER_BI</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Significance.y</t>
+          <t>Significance.PFIZER_BI</t>
         </is>
       </c>
     </row>
